--- a/2018年/建站产品1月工作安排.xlsx
+++ b/2018年/建站产品1月工作安排.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="进度" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,12 +51,95 @@
   </si>
   <si>
     <t>与设计组讨论产品模块样式开发方向，并定下开发内容。后续模块新样式将由设计组负责主导，在设计模板的过程中，对行业内的网站进行调研，并输出文档，筛选出需要开发的新样式模块，要求与现有的样式有大幅度差别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术代码底层调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品样式风格统一性调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在的底层代码需要进行规划化整理，把同一样式的内容都使用同一套代码去调整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在建站编辑器、建站后台的相同功能呢往往使用着不同的调用方式，例如图片上传，有直接上传的，也有通过文件管理器上传的，超链接有直接填写的，也有使用超链接编辑器填写的，这些都需要全部找出来重新规范。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品组、设计组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年产品规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳出本司产品的内容，考虑建站产品的出路。参考：推广、营销、工具、最懂推广的建站工具、数据呈现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试组需求处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输出需求描述文档需要规划化。
+2.要求拥有测试站点的数据库查看修改权限。正式数据库的查看权限。
+3.对产品进行划分模块，分配到对应的人员。方便进行考核与问题追究，也方便问题指派。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banner轮播图切换效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据设计需要需要的轮播效果，筛选出竞品常用或者比较特殊也容易实现的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建站编辑器改版2期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.移动端的减少只剩下手机（这个需要调研更多，现阶段这个4屏的貌似是行业通配，但是别的产品没有要求用户去设计，只有尺寸适应显示）
+2.现在我们的编辑改版还不够彻底好用，还有一些重点与非重点的区分问题，用户的视觉停留问题需要更深入的去考虑，但是不能影响现有用户习惯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建站产品问题考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现在我们的建站产品很多时候由于某些功能用户已经子在使用了，到时我们不能进行调整，而这些功能明显的已经不符合市场要求了，例如分类能开单独的设计页面这种功能，但是我们不能随便调整，所以导致我们跟整个市场有脱节，这个需要考虑一下如何解决。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.导航新样式3个
 2.图片模块调整功能,可以调整图片在文案的位置。
-3.在线客服2个新样式，在线客服的编辑器需要调整。
+3.在线客服3个新样式，在线客服的编辑器需要调整。
 4.Banner轮播图的切换效果收集。
 5.搜索模块功能调整。
 6.视频模块优化、视频资源优化调整（之前旭华有新一批的）
@@ -65,86 +149,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技术代码底层调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品样式风格统一性调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在的底层代码需要进行规划化整理，把同一样式的内容都使用同一套代码去调整。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在建站编辑器、建站后台的相同功能呢往往使用着不同的调用方式，例如图片上传，有直接上传的，也有通过文件管理器上传的，超链接有直接填写的，也有使用超链接编辑器填写的，这些都需要全部找出来重新规范。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品组、设计组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年产品规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳出本司产品的内容，考虑建站产品的出路。参考：推广、营销、工具、最懂推广的建站工具、数据呈现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试组需求处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.输出需求描述文档需要规划化。
-2.要求拥有测试站点的数据库查看修改权限。正式数据库的查看权限。
-3.对产品进行划分模块，分配到对应的人员。方便进行考核与问题追究，也方便问题指派。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banner轮播图切换效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据设计需要需要的轮播效果，筛选出竞品常用或者比较特殊也容易实现的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建站编辑器改版2期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.移动端的减少只剩下手机（这个需要调研更多，现阶段这个4屏的貌似是行业通配，但是别的产品没有要求用户去设计，只有尺寸适应显示）
-2.现在我们的编辑改版还不够彻底好用，还有一些重点与非重点的区分问题，用户的视觉停留问题需要更深入的去考虑，但是不能影响现有用户习惯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建站产品问题考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.现在我们的建站产品很多时候由于某些功能用户已经子在使用了，到时我们不能进行调整，而这些功能明显的已经不符合市场要求了，例如分类能开单独的设计页面这种功能，但是我们不能随便调整，所以导致我们跟整个市场有脱节，这个需要考虑一下如何解决。</t>
+    <t>在线客服3个新样式，在线客服的编辑器需要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航新样式2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单页滚屏模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索模块功能调整。</t>
+  </si>
+  <si>
+    <t>注册界面需要调整原有样式，同时新增2个样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手风琴模块需要新增一个图文样式</t>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -184,11 +215,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +364,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -531,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>43104</v>
@@ -539,8 +735,8 @@
       <c r="F2" s="2">
         <v>43104</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -548,13 +744,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>43115</v>
@@ -568,13 +764,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>43115</v>
@@ -588,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>43105</v>
@@ -608,13 +804,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>43101</v>
@@ -628,13 +824,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>43113</v>
@@ -648,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>43115</v>
@@ -668,13 +864,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>43115</v>
@@ -688,4 +884,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2018年/建站产品1月工作安排.xlsx
+++ b/2018年/建站产品1月工作安排.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,9 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索模块功能调整。</t>
-  </si>
-  <si>
     <t>注册界面需要调整原有样式，同时新增2个样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +173,38 @@
   </si>
   <si>
     <t>预计更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航新样式1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索模块功能调整，增加搜索页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选出建站部分功能整理列表设计后台界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签样式模块，可增加标签图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文模块调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手风琴图文模块新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月新精品模板，2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO功能增加，SEO收录、内链功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +227,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -350,11 +388,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,28 +448,46 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+      <selection activeCell="C14" sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,85 +996,163 @@
     <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B4" s="5">
         <v>0.6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C4" s="7">
         <v>43126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="C4" s="10">
-        <v>43125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
       </c>
       <c r="C5" s="10">
-        <v>43132</v>
+        <v>43131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B9" s="5">
         <v>0.5</v>
       </c>
-      <c r="C6" s="10">
-        <v>43132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="C9" s="7">
+        <v>43134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8">
         <v>0.5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C10" s="10">
         <v>43134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/2018年/建站产品1月工作安排.xlsx
+++ b/2018年/建站产品1月工作安排.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="进度" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="进度" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +206,50 @@
   </si>
   <si>
     <t>SEO功能增加，SEO收录、内链功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品详情界面修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成更新上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行细节调整，预计本周完成测试修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有4个旧样式共7个一起更新上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做完资料收集与产品规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周完成页面设计与提交给技术进行开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经在测试中，预计本周更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在技术开发中，预计本周完成测试，下周更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计完成，等待开发，预计本周更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,6 +533,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,10 +1052,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="40.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <v>43122</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="20">
+        <v>43125</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="20">
+        <v>43129</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>43131</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>43132</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43132</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="20">
+        <v>43134</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>43134</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/2018年/建站产品1月工作安排.xlsx
+++ b/2018年/建站产品1月工作安排.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品详情界面修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,15 +237,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经在测试中，预计本周更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正在技术开发中，预计本周完成测试，下周更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计完成，等待开发，预计本周更新</t>
+    <t>产品图片新增视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用分类模块功能调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签模块界面调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品展示模块调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册样式4个，旧3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品详情页页面调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,6 +570,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1077,68 +1092,68 @@
         <v>44</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="20">
-        <v>43122</v>
+        <v>43139</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="20">
-        <v>43125</v>
+        <v>43139</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="20">
-        <v>43129</v>
+        <v>43139</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="20">
-        <v>43131</v>
+        <v>43139</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5">
         <v>0.5</v>
@@ -1147,55 +1162,27 @@
         <v>43132</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>43132</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="20">
-        <v>43132</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="20">
-        <v>43134</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="26">
-        <v>43134</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
